--- a/Massachusetts/Hull Blocks Layout.xlsx
+++ b/Massachusetts/Hull Blocks Layout.xlsx
@@ -1,30 +1,64 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MINE\Code\AZFleet-Overseas-Bay\Massachusetts\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DCC2DB6-97DE-4E08-9791-51183ECDF813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>Front</t>
+  </si>
+  <si>
+    <t>Back</t>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -53,7 +87,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +364,205 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BF7D3BF-73E1-47FD-A47E-818036AD8FE4}">
+  <dimension ref="A1:P5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>2</v>
+      </c>
+      <c r="C1">
+        <v>7</v>
+      </c>
+      <c r="D1">
+        <v>12</v>
+      </c>
+      <c r="E1">
+        <v>17</v>
+      </c>
+      <c r="F1">
+        <v>22</v>
+      </c>
+      <c r="G1">
+        <v>27</v>
+      </c>
+      <c r="H1">
+        <v>32</v>
+      </c>
+      <c r="I1">
+        <v>37</v>
+      </c>
+      <c r="J1">
+        <v>42</v>
+      </c>
+      <c r="K1">
+        <v>46</v>
+      </c>
+      <c r="L1">
+        <v>50</v>
+      </c>
+      <c r="M1">
+        <v>54</v>
+      </c>
+      <c r="N1">
+        <v>62</v>
+      </c>
+      <c r="O1">
+        <v>68</v>
+      </c>
+      <c r="P1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2">
+        <v>3</v>
+      </c>
+      <c r="J2">
+        <v>5</v>
+      </c>
+      <c r="K2">
+        <v>6</v>
+      </c>
+      <c r="L2">
+        <v>10</v>
+      </c>
+      <c r="M2">
+        <v>15</v>
+      </c>
+      <c r="N2">
+        <v>21</v>
+      </c>
+      <c r="O2">
+        <v>28</v>
+      </c>
+      <c r="P2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <f>204-B1-B2</f>
+        <v>202</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:AA3" si="0">204-C1-C2</f>
+        <v>197</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="0"/>
+        <v>192</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>186</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="0"/>
+        <v>181</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="0"/>
+        <v>175</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="0"/>
+        <v>170</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="0"/>
+        <v>164</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="0"/>
+        <v>157</v>
+      </c>
+      <c r="K3">
+        <f t="shared" si="0"/>
+        <v>152</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="0"/>
+        <v>144</v>
+      </c>
+      <c r="M3">
+        <f t="shared" si="0"/>
+        <v>135</v>
+      </c>
+      <c r="N3">
+        <f t="shared" si="0"/>
+        <v>121</v>
+      </c>
+      <c r="O3">
+        <f t="shared" si="0"/>
+        <v>108</v>
+      </c>
+      <c r="P3">
+        <f t="shared" si="0"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <f>204+2*SUM(B3:AU3)</f>
+        <v>4960</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>